--- a/medicine/Enfance/Marcia_Brown/Marcia_Brown.xlsx
+++ b/medicine/Enfance/Marcia_Brown/Marcia_Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcia (Joan) Brown (1918-2015) est une auteure, enseignante, écrivaine américaine et illustratrice notamment en littérature jeunesse.
 à ne pas confondre avec Marcia F. Brown  
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Rochester, Etat de New York, elle s'est inscrite au New York State College for Teachers (aujourd'hui l'Université d'Albany). Elle a enseigné au Cornwall High School de New York, où elle a commencé sa carrière d'écrivain. Son premier livre était The Little Carousel, un livre d'images de 32 pages qu'elle a écrit et illustré, publié par Scribner's en 1946.
-Ayant grandi pendant la grande dépression, Marcia Brown a envisagé de devenir médecin. Elle fut un temps bibliothécaire en section Jeunesse. Elle décida cependant de reprendre l'enseignement et, plus tard, l'écriture. Beaucoup de ses titres ont été traduits dans de nombreuses langues dont l'afrikaans, l'allemand, le français, le japonais, l'espagnol ou encore le Xhosa. Elle maîtrisait l'intégralité de techniques de l'illustration, et s'est également intéressée à la musique et au ballet. Son inspiration se nourrissait notamment de ses nombreux voyages. Brown est connue comme l'une des illustratrice les plus honorées de la littérature pour enfants[1],[2].
+Ayant grandi pendant la grande dépression, Marcia Brown a envisagé de devenir médecin. Elle fut un temps bibliothécaire en section Jeunesse. Elle décida cependant de reprendre l'enseignement et, plus tard, l'écriture. Beaucoup de ses titres ont été traduits dans de nombreuses langues dont l'afrikaans, l'allemand, le français, le japonais, l'espagnol ou encore le Xhosa. Elle maîtrisait l'intégralité de techniques de l'illustration, et s'est également intéressée à la musique et au ballet. Son inspiration se nourrissait notamment de ses nombreux voyages. Brown est connue comme l'une des illustratrice les plus honorées de la littérature pour enfants,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour sa contribution en tant qu'illustratrice pour enfants, Marcia Brown a été nommée aux États-Unis en 1966 et en 1976 pour le Prix Hans-Christian-Andersen, la plus haute reconnaissance internationale offerte aux créateurs de livres pour enfants.   
 Elle a reçu en 1977 la Médaille Regina de l'Association des Bibliothèques Catholiques (Catholic Libraries Association) pour "contribution continue et distinguée à la littérature pour enfants sans égard à la nature de la contribution"; 
